--- a/03_Process/YA_10.4.xlsx
+++ b/03_Process/YA_10.4.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">2022</t>
   </si>
   <si>
-    <t xml:space="preserve">2023* Preliminares</t>
+    <t xml:space="preserve">2023</t>
   </si>
 </sst>
 </file>
